--- a/TestsMaquettesFonctionnelles/Ambroise/Consulter/maquette consulter ses rapports de visite.xlsx
+++ b/TestsMaquettesFonctionnelles/Ambroise/Consulter/maquette consulter ses rapports de visite.xlsx
@@ -48,7 +48,7 @@
   </si>
   <si>
     <t xml:space="preserve">Saisie de dates valides et validation. 
-(Sélection de date entre 2000 et 2026)</t>
+(Sélection de date entre 01/01/2000 et 01/01/2026)</t>
   </si>
   <si>
     <t xml:space="preserve">Affichage de la liste des rapports correspondants triée par date.</t>
@@ -68,8 +68,8 @@
     <t xml:space="preserve">5, 6</t>
   </si>
   <si>
-    <t xml:space="preserve"> Remettez la date de 2000 à 2026 Clic sur « voir détail » d’un rapport spécifique dans la liste.
-Prenez celui de l’image1,png </t>
+    <t xml:space="preserve"> Remettez la date de 01/01/2000 et 01/01/2026 Clic sur « voir détail » d’un rapport spécifique dans la liste.
+Prenez celui de l’image1.png </t>
   </si>
   <si>
     <t xml:space="preserve">Le système affiche le détail complet du rapport de visite sélectionné.
@@ -90,28 +90,9 @@
     <t xml:space="preserve">6-b</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Le visiteur peut demander à voir les renseignements sur un médicament présenté ou
+    <t xml:space="preserve"> Le visiteur peut demander à voir les renseignements sur un médicament présenté ou
  offert en échantillon
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(cliquer sur le nom du médicament AMOXAR (AMOX45)  )</t>
-    </r>
+(cliquer sur le nom du médicament AMOXAR (AMOX45)  )</t>
   </si>
   <si>
     <t xml:space="preserve">Affichage des renseignements du médicament/échantillon
@@ -131,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -162,11 +143,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,6 +226,320 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>178200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>311760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Image 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="178200" y="4852080"/>
+          <a:ext cx="8200080" cy="4315680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect/>
+          <a:stretch/>
+        </a:blipFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>IMAGE2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>531360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Image 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8146080" y="5537520"/>
+          <a:ext cx="7624800" cy="3393720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip r:embed="rId2"/>
+          <a:srcRect/>
+          <a:stretch/>
+        </a:blipFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>IMAGE 3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1167120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367560</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Image 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2199600" y="9410760"/>
+          <a:ext cx="6234480" cy="3610440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip r:embed="rId3"/>
+          <a:srcRect/>
+          <a:stretch/>
+        </a:blipFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>IMAGE 4</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1434600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>784440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Image 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9501120" y="11035080"/>
+          <a:ext cx="10973880" cy="475920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip r:embed="rId4"/>
+          <a:stretch/>
+        </a:blipFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>IMAGE1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,8 +722,8 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,7 +780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -504,7 +802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -528,7 +826,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="AMOXAR (AMOX45) "/>
+    <hyperlink ref="B7" r:id="rId1" display=" Le visiteur peut demander à voir les renseignements sur un médicament présenté ou&#10; offert en échantillon&#10;(cliquer sur le nom du médicament AMOXAR (AMOX45)  )"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -537,5 +835,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>